--- a/RoadMap/NewMap_Excel/Map2.xlsx
+++ b/RoadMap/NewMap_Excel/Map2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuzu2\Desktop\TeamCreate\デザインしたやつ\マップ\Excelデータ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3900A9C1-C88D-4A7F-BFF9-B85268211033}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C19A08F-1133-4CBC-9FA1-2BD4D132F4E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="51">
   <si>
     <t>Ps</t>
     <phoneticPr fontId="1"/>
@@ -42,19 +42,7 @@
     <t>Pr</t>
   </si>
   <si>
-    <t>De</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Me</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Se</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VPr</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -66,15 +54,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>VPs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Me</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Se</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -184,35 +164,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>VDs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VDr</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>s</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>E_7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>De</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VDr</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Jr</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -249,6 +205,14 @@
   </si>
   <si>
     <t>Ps</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -290,7 +254,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,18 +300,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,7 +432,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -554,24 +506,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
@@ -962,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R472"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A361" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L369" sqref="L369"/>
+    <sheetView tabSelected="1" topLeftCell="A235" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J249" sqref="J249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -975,49 +909,49 @@
     <row r="1" spans="1:18" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="Q1" s="6"/>
       <c r="R1" s="2"/>
@@ -1034,7 +968,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1139,27 +1073,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M7" s="24"/>
-      <c r="N7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="O7" s="16"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="25"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="2"/>
@@ -1169,19 +1095,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="16"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="25"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="2"/>
@@ -1191,27 +1117,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="25"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="2"/>
@@ -1342,11 +1260,11 @@
       <c r="B16" s="9"/>
       <c r="C16" s="3"/>
       <c r="D16" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E16" s="24"/>
       <c r="F16" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1354,11 +1272,11 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M16" s="24"/>
       <c r="N16" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O16" s="16"/>
       <c r="P16" s="9"/>
@@ -1399,21 +1317,21 @@
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
       <c r="O18" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P18" s="9"/>
       <c r="Q18" s="6"/>
@@ -1557,11 +1475,11 @@
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1571,11 +1489,11 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="N25" s="24"/>
       <c r="O25" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P25" s="9"/>
       <c r="Q25" s="6"/>
@@ -1608,29 +1526,29 @@
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="33"/>
+        <v>43</v>
+      </c>
+      <c r="C27" s="27"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
-      <c r="O27" s="32"/>
+      <c r="O27" s="26"/>
       <c r="P27" s="9" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="Q27" s="6"/>
       <c r="R27" s="2"/>
@@ -1769,7 +1687,7 @@
       </c>
       <c r="I34" s="10"/>
       <c r="J34" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -1808,18 +1726,18 @@
       </c>
       <c r="B36" s="9"/>
       <c r="D36" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E36" s="24"/>
       <c r="F36" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M36" s="24"/>
       <c r="N36" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="P36" s="9"/>
       <c r="Q36" s="6"/>
@@ -1856,21 +1774,19 @@
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
-      <c r="K38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L38" s="10"/>
+      <c r="L38" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
       <c r="O38" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P38" s="9"/>
       <c r="Q38" s="6"/>
@@ -1993,7 +1909,7 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -2029,11 +1945,11 @@
         <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C48" s="33"/>
+        <v>48</v>
+      </c>
+      <c r="C48" s="27"/>
       <c r="D48" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E48" s="2"/>
       <c r="H48" s="1" t="s">
@@ -2041,16 +1957,16 @@
       </c>
       <c r="I48" s="10"/>
       <c r="J48" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="O48" s="11"/>
       <c r="P48" s="9" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="Q48" s="6"/>
       <c r="R48" s="2"/>
@@ -2180,11 +2096,11 @@
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I55" s="24"/>
       <c r="J55" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
@@ -2236,7 +2152,7 @@
       <c r="M57" s="10"/>
       <c r="N57" s="10"/>
       <c r="O57" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P57" s="9"/>
       <c r="Q57" s="6"/>
@@ -2324,9 +2240,6 @@
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
-      <c r="M61" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="N61" s="1"/>
       <c r="P61" s="9"/>
       <c r="Q61" s="6"/>
@@ -2341,13 +2254,11 @@
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
-      <c r="G62" s="2" t="s">
+      <c r="H62" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H62" s="11"/>
       <c r="I62" s="10"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="2" t="s">
+      <c r="J62" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L62" s="2"/>
@@ -2366,11 +2277,9 @@
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="12"/>
       <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
       <c r="N63" s="1"/>
@@ -2387,13 +2296,11 @@
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
-      <c r="G64" s="2" t="s">
+      <c r="H64" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H64" s="11"/>
       <c r="I64" s="10"/>
-      <c r="J64" s="10"/>
-      <c r="K64" s="2" t="s">
+      <c r="J64" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L64" s="2"/>
@@ -2431,19 +2338,21 @@
       <c r="B66" s="9"/>
       <c r="C66" s="3"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="2" t="s">
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G66" s="10"/>
-      <c r="H66" s="11"/>
       <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="2" t="s">
+      <c r="J66" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="N66" s="1"/>
       <c r="P66" s="9"/>
       <c r="Q66" s="6"/>
@@ -2477,19 +2386,19 @@
       <c r="B68" s="9"/>
       <c r="C68" s="3"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="2" t="s">
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
       <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="2" t="s">
+      <c r="J68" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
       <c r="N68" s="1"/>
       <c r="P68" s="9"/>
       <c r="Q68" s="6"/>
@@ -2523,19 +2432,19 @@
       <c r="B70" s="9"/>
       <c r="C70" s="3"/>
       <c r="D70" s="1"/>
-      <c r="E70" s="2" t="s">
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
       <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10"/>
-      <c r="L70" s="10"/>
-      <c r="M70" s="2" t="s">
+      <c r="J70" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
       <c r="N70" s="1"/>
       <c r="P70" s="9"/>
       <c r="Q70" s="6"/>
@@ -2568,19 +2477,19 @@
       </c>
       <c r="B72" s="9"/>
       <c r="D72" s="1"/>
-      <c r="E72" s="2" t="s">
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
       <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="2" t="s">
+      <c r="J72" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
       <c r="N72" s="1"/>
       <c r="P72" s="9"/>
       <c r="Q72" s="6"/>
@@ -2612,33 +2521,33 @@
       <c r="A74" s="7">
         <v>73</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="9"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C74" s="27"/>
-      <c r="D74" t="s">
-        <v>50</v>
-      </c>
-      <c r="E74" s="2" t="s">
+      <c r="E74" s="24"/>
+      <c r="F74" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
       <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="2" t="s">
+      <c r="J74" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M74" s="24"/>
       <c r="N74" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="O74" s="28"/>
-      <c r="P74" s="9" t="s">
-        <v>50</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="O74" s="25"/>
+      <c r="P74" s="9"/>
       <c r="Q74" s="6"/>
       <c r="R74" s="2"/>
     </row>
@@ -2669,9 +2578,9 @@
         <v>75</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C76" s="33"/>
+        <v>48</v>
+      </c>
+      <c r="C76" s="27"/>
       <c r="D76" s="10"/>
       <c r="E76" s="10"/>
       <c r="F76" s="10"/>
@@ -2683,9 +2592,9 @@
       <c r="L76" s="10"/>
       <c r="M76" s="10"/>
       <c r="N76" s="10"/>
-      <c r="O76" s="32"/>
+      <c r="O76" s="26"/>
       <c r="P76" s="9" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="Q76" s="6"/>
       <c r="R76" s="2"/>
@@ -2762,15 +2671,9 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
-      <c r="H81" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
@@ -2790,9 +2693,9 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
-      <c r="H82" s="25"/>
-      <c r="I82" s="25"/>
-      <c r="J82" s="25"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
@@ -2816,17 +2719,17 @@
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
-      <c r="H83" s="25"/>
-      <c r="I83" s="25"/>
-      <c r="J83" s="25"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N83" s="10"/>
       <c r="O83" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P83" s="9"/>
       <c r="Q83" s="6"/>
@@ -2846,17 +2749,17 @@
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="25"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N84" s="10"/>
       <c r="O84" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P84" s="9"/>
       <c r="Q84" s="6"/>
@@ -2876,23 +2779,17 @@
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
-      <c r="H85" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N85" s="10"/>
       <c r="O85" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P85" s="9"/>
       <c r="Q85" s="6"/>
@@ -2907,8 +2804,7 @@
         <v>0</v>
       </c>
       <c r="D86" s="10"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="2" t="s">
+      <c r="E86" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G86" s="2"/>
@@ -2916,13 +2812,12 @@
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
-      <c r="L86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M86" s="10"/>
+      <c r="M86" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="N86" s="10"/>
       <c r="O86" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P86" s="9"/>
       <c r="Q86" s="6"/>
@@ -2937,8 +2832,7 @@
         <v>0</v>
       </c>
       <c r="D87" s="10"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="2" t="s">
+      <c r="E87" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G87" s="2"/>
@@ -2946,13 +2840,12 @@
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
-      <c r="L87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M87" s="10"/>
+      <c r="M87" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="N87" s="10"/>
       <c r="O87" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P87" s="9"/>
       <c r="Q87" s="6"/>
@@ -2967,8 +2860,7 @@
         <v>0</v>
       </c>
       <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="1" t="s">
+      <c r="E88" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G88" s="1"/>
@@ -2976,13 +2868,12 @@
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
-      <c r="L88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M88" s="10"/>
+      <c r="M88" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="N88" s="10"/>
       <c r="O88" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P88" s="9"/>
       <c r="Q88" s="6"/>
@@ -2997,24 +2888,21 @@
         <v>0</v>
       </c>
       <c r="D89" s="10"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="2" t="s">
+      <c r="E89" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H89" s="2"/>
       <c r="I89" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J89" s="2"/>
-      <c r="K89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L89" s="10"/>
-      <c r="M89" s="10"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="N89" s="10"/>
       <c r="O89" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P89" s="9"/>
       <c r="Q89" s="6"/>
@@ -3029,22 +2917,19 @@
         <v>0</v>
       </c>
       <c r="D90" s="10"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="1" t="s">
+      <c r="E90" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
-      <c r="K90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L90" s="10"/>
-      <c r="M90" s="10"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="N90" s="10"/>
       <c r="O90" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P90" s="9"/>
       <c r="Q90" s="6"/>
@@ -3059,26 +2944,23 @@
         <v>0</v>
       </c>
       <c r="D91" s="10"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="2" t="s">
+      <c r="E91" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I91" s="24"/>
       <c r="J91" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L91" s="10"/>
-      <c r="M91" s="10"/>
+        <v>32</v>
+      </c>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="N91" s="10"/>
       <c r="O91" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P91" s="9"/>
       <c r="Q91" s="6"/>
@@ -3093,19 +2975,16 @@
         <v>0</v>
       </c>
       <c r="D92" s="18"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="2" t="s">
+      <c r="E92" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L92" s="10"/>
-      <c r="M92" s="10"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="N92" s="10"/>
       <c r="O92" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P92" s="9"/>
       <c r="Q92" s="6"/>
@@ -3131,7 +3010,7 @@
       <c r="M93" s="10"/>
       <c r="N93" s="10"/>
       <c r="O93" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P93" s="9"/>
       <c r="Q93" s="6"/>
@@ -3220,7 +3099,7 @@
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
-      <c r="O97" s="31"/>
+      <c r="O97" s="25"/>
       <c r="P97" s="9"/>
       <c r="Q97" s="6"/>
       <c r="R97" s="2"/>
@@ -3298,7 +3177,7 @@
       <c r="B101" s="9"/>
       <c r="C101" s="3"/>
       <c r="D101" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>0</v>
@@ -3309,14 +3188,14 @@
       </c>
       <c r="I101" s="2"/>
       <c r="J101" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K101" s="10"/>
       <c r="L101" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="N101" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="O101" s="16"/>
       <c r="P101" s="9"/>
@@ -3395,21 +3274,21 @@
       </c>
       <c r="B105" s="9"/>
       <c r="D105" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E105" s="24"/>
       <c r="F105" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
       <c r="L105" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M105" s="24"/>
       <c r="N105" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="O105" s="16"/>
       <c r="P105" s="9"/>
@@ -3455,12 +3334,12 @@
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
       <c r="L107" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M107" s="10"/>
       <c r="N107" s="10"/>
       <c r="O107" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P107" s="9"/>
       <c r="Q107" s="6"/>
@@ -3556,7 +3435,7 @@
       <c r="C113" s="6"/>
       <c r="D113" s="2"/>
       <c r="F113" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
@@ -3577,20 +3456,20 @@
       <c r="C114" s="6"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F114" s="24"/>
       <c r="G114" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
       <c r="J114" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K114" s="24"/>
       <c r="L114" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="16"/>
@@ -3627,18 +3506,14 @@
       <c r="B116" s="9"/>
       <c r="C116" s="6"/>
       <c r="D116" s="2"/>
-      <c r="E116" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F116" s="10"/>
-      <c r="G116" s="10"/>
+      <c r="G116" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="H116" s="10"/>
       <c r="I116" s="10"/>
       <c r="J116" s="10"/>
-      <c r="K116" s="10"/>
-      <c r="L116" s="10"/>
-      <c r="M116" s="2" t="s">
-        <v>52</v>
+      <c r="K116" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="16"/>
@@ -3723,11 +3598,9 @@
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
-      <c r="M121" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="M121" s="2"/>
       <c r="N121" s="2"/>
-      <c r="O121" s="16"/>
+      <c r="O121" s="25"/>
       <c r="P121" s="9"/>
       <c r="Q121" s="6"/>
       <c r="R121" s="2"/>
@@ -3737,31 +3610,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="9"/>
-      <c r="C122" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D122" s="10"/>
-      <c r="E122" s="10"/>
-      <c r="F122" s="10"/>
-      <c r="G122" s="10"/>
-      <c r="H122" s="10"/>
-      <c r="I122" s="10"/>
-      <c r="J122" s="10"/>
-      <c r="K122" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L122" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M122" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N122" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O122" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="L122" s="2"/>
+      <c r="M122" s="2"/>
+      <c r="N122" s="2"/>
+      <c r="O122" s="2"/>
       <c r="P122" s="9"/>
       <c r="Q122" s="6"/>
       <c r="R122" s="2"/>
@@ -3780,10 +3632,10 @@
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
-      <c r="L123" s="25"/>
-      <c r="M123" s="25"/>
-      <c r="N123" s="25"/>
-      <c r="O123" s="29"/>
+      <c r="L123" s="2"/>
+      <c r="M123" s="2"/>
+      <c r="N123" s="2"/>
+      <c r="O123" s="25"/>
       <c r="P123" s="9"/>
       <c r="Q123" s="6"/>
       <c r="R123" s="2"/>
@@ -3793,19 +3645,23 @@
         <v>123</v>
       </c>
       <c r="B124" s="9"/>
-      <c r="C124" s="6"/>
-      <c r="D124" s="20"/>
-      <c r="E124" s="20"/>
-      <c r="F124" s="20"/>
-      <c r="G124" s="20"/>
-      <c r="H124" s="20"/>
+      <c r="C124" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="I124" s="20"/>
       <c r="J124" s="20"/>
       <c r="K124" s="20"/>
-      <c r="L124" s="30"/>
-      <c r="M124" s="30"/>
-      <c r="N124" s="25"/>
-      <c r="O124" s="29"/>
+      <c r="L124" s="20"/>
+      <c r="M124" s="20"/>
+      <c r="N124" s="2"/>
+      <c r="O124" s="25"/>
       <c r="P124" s="9"/>
       <c r="Q124" s="6"/>
       <c r="R124" s="2"/>
@@ -3824,10 +3680,10 @@
       <c r="I125" s="2"/>
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
-      <c r="L125" s="25"/>
-      <c r="M125" s="25"/>
-      <c r="N125" s="25"/>
-      <c r="O125" s="29"/>
+      <c r="L125" s="2"/>
+      <c r="M125" s="2"/>
+      <c r="N125" s="2"/>
+      <c r="O125" s="25"/>
       <c r="P125" s="9"/>
       <c r="Q125" s="6"/>
       <c r="R125" s="2"/>
@@ -3846,18 +3702,10 @@
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
-      <c r="L126" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M126" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N126" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O126" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="L126" s="2"/>
+      <c r="M126" s="2"/>
+      <c r="N126" s="2"/>
+      <c r="O126" s="2"/>
       <c r="P126" s="9"/>
       <c r="Q126" s="6"/>
       <c r="R126" s="2"/>
@@ -3918,13 +3766,10 @@
       <c r="B131" s="9"/>
       <c r="C131" s="6"/>
       <c r="D131" s="2"/>
-      <c r="E131" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="E131" s="2"/>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
-      <c r="I131" s="2"/>
       <c r="J131" s="2"/>
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
@@ -3940,30 +3785,19 @@
         <v>131</v>
       </c>
       <c r="B132" s="9"/>
-      <c r="C132" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H132" s="10"/>
-      <c r="I132" s="10"/>
-      <c r="J132" s="10"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="J132" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="K132" s="10"/>
       <c r="L132" s="10"/>
       <c r="M132" s="10"/>
       <c r="N132" s="10"/>
       <c r="O132" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P132" s="9"/>
       <c r="Q132" s="6"/>
@@ -3974,10 +3808,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="9"/>
-      <c r="C133" s="25"/>
-      <c r="D133" s="25"/>
-      <c r="E133" s="25"/>
-      <c r="F133" s="25"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
@@ -3996,10 +3830,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="9"/>
-      <c r="C134" s="25"/>
-      <c r="D134" s="30"/>
-      <c r="E134" s="30"/>
-      <c r="F134" s="25"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="20"/>
+      <c r="E134" s="20"/>
+      <c r="F134" s="2"/>
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
@@ -4018,10 +3852,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="9"/>
-      <c r="C135" s="25"/>
-      <c r="D135" s="25"/>
-      <c r="E135" s="25"/>
-      <c r="F135" s="25"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
@@ -4040,18 +3874,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="9"/>
-      <c r="C136" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
@@ -4113,7 +3939,7 @@
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
       <c r="I141" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
@@ -4139,23 +3965,17 @@
       <c r="G142" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H142" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I142" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J142" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
+      <c r="J142" s="2"/>
       <c r="K142" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L142" s="10"/>
       <c r="M142" s="10"/>
       <c r="N142" s="10"/>
       <c r="O142" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P142" s="9"/>
       <c r="Q142" s="6"/>
@@ -4171,9 +3991,9 @@
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
       <c r="G143" s="2"/>
-      <c r="H143" s="25"/>
-      <c r="I143" s="25"/>
-      <c r="J143" s="25"/>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2"/>
+      <c r="J143" s="2"/>
       <c r="K143" s="2"/>
       <c r="L143" s="2"/>
       <c r="M143" s="2"/>
@@ -4192,9 +4012,9 @@
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
       <c r="G144" s="2"/>
-      <c r="H144" s="30"/>
-      <c r="I144" s="30"/>
-      <c r="J144" s="25"/>
+      <c r="H144" s="20"/>
+      <c r="I144" s="20"/>
+      <c r="J144" s="2"/>
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
       <c r="M144" s="2"/>
@@ -4214,9 +4034,9 @@
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
-      <c r="H145" s="25"/>
-      <c r="I145" s="25"/>
-      <c r="J145" s="25"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2"/>
       <c r="K145" s="2"/>
       <c r="L145" s="2"/>
       <c r="M145" s="2"/>
@@ -4236,15 +4056,9 @@
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
-      <c r="H146" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I146" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J146" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
+      <c r="J146" s="2"/>
       <c r="K146" s="2"/>
       <c r="L146" s="2"/>
       <c r="M146" s="2"/>
@@ -4317,26 +4131,18 @@
         <v>151</v>
       </c>
       <c r="B152" s="9"/>
-      <c r="C152" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G152" s="10"/>
-      <c r="H152" s="10"/>
-      <c r="I152" s="10"/>
-      <c r="J152" s="10"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+      <c r="J152" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="K152" s="10"/>
       <c r="L152" s="10"/>
       <c r="M152" s="10"/>
       <c r="N152" s="10"/>
-      <c r="O152" s="32"/>
+      <c r="O152" s="26"/>
       <c r="P152" s="9" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="Q152" s="6"/>
       <c r="R152" s="2"/>
@@ -4346,8 +4152,8 @@
         <v>152</v>
       </c>
       <c r="B153" s="9"/>
-      <c r="C153" s="25"/>
-      <c r="D153" s="25"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
@@ -4368,8 +4174,8 @@
         <v>153</v>
       </c>
       <c r="B154" s="9"/>
-      <c r="C154" s="30"/>
-      <c r="D154" s="30"/>
+      <c r="C154" s="20"/>
+      <c r="D154" s="20"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
@@ -4390,8 +4196,8 @@
         <v>154</v>
       </c>
       <c r="B155" s="9"/>
-      <c r="C155" s="25"/>
-      <c r="D155" s="25"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
@@ -4412,6 +4218,8 @@
         <v>155</v>
       </c>
       <c r="B156" s="9"/>
+      <c r="C156" s="12"/>
+      <c r="D156" s="12"/>
       <c r="P156" s="9"/>
       <c r="Q156" s="6"/>
       <c r="R156" s="2"/>
@@ -4448,12 +4256,8 @@
         <v>159</v>
       </c>
       <c r="B160" s="9"/>
-      <c r="C160" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
@@ -4481,16 +4285,11 @@
       <c r="E161" s="10"/>
       <c r="F161" s="10"/>
       <c r="G161" s="10"/>
-      <c r="H161" s="10"/>
-      <c r="I161" s="2" t="s">
+      <c r="H161" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J161" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K161" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="J161" s="2"/>
+      <c r="K161" s="2"/>
       <c r="L161" s="2"/>
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
@@ -4511,8 +4310,8 @@
       <c r="G162" s="2"/>
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
-      <c r="J162" s="25"/>
-      <c r="K162" s="25"/>
+      <c r="J162" s="2"/>
+      <c r="K162" s="2"/>
       <c r="L162" s="2"/>
       <c r="M162" s="2"/>
       <c r="N162" s="2"/>
@@ -4533,8 +4332,8 @@
       <c r="G163" s="2"/>
       <c r="H163" s="2"/>
       <c r="I163" s="2"/>
-      <c r="J163" s="30"/>
-      <c r="K163" s="30"/>
+      <c r="J163" s="20"/>
+      <c r="K163" s="20"/>
       <c r="L163" s="2"/>
       <c r="M163" s="2"/>
       <c r="N163" s="2"/>
@@ -4555,8 +4354,8 @@
       <c r="G164" s="2"/>
       <c r="H164" s="2"/>
       <c r="I164" s="2"/>
-      <c r="J164" s="25"/>
-      <c r="K164" s="25"/>
+      <c r="J164" s="2"/>
+      <c r="K164" s="2"/>
       <c r="L164" s="2"/>
       <c r="M164" s="2"/>
       <c r="N164" s="2"/>
@@ -4570,12 +4369,8 @@
         <v>164</v>
       </c>
       <c r="B165" s="9"/>
-      <c r="J165" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K165" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="J165" s="2"/>
+      <c r="K165" s="2"/>
       <c r="P165" s="9"/>
       <c r="Q165" s="6"/>
       <c r="R165" s="2"/>
@@ -4602,15 +4397,15 @@
       <c r="H167" s="2"/>
       <c r="I167" s="2"/>
       <c r="J167" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K167" s="10"/>
       <c r="L167" s="10"/>
       <c r="M167" s="10"/>
       <c r="N167" s="10"/>
-      <c r="O167" s="32"/>
+      <c r="O167" s="26"/>
       <c r="P167" s="9" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="Q167" s="6"/>
       <c r="R167" s="2"/>
@@ -4656,16 +4451,11 @@
         <v>171</v>
       </c>
       <c r="B172" s="9"/>
-      <c r="C172" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E172" s="2" t="s">
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="F172" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F172" s="10"/>
       <c r="G172" s="10"/>
       <c r="H172" s="10"/>
       <c r="I172" s="2" t="s">
@@ -4686,8 +4476,8 @@
         <v>172</v>
       </c>
       <c r="B173" s="9"/>
-      <c r="C173" s="25"/>
-      <c r="D173" s="25"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
       <c r="G173" s="2" t="s">
@@ -4695,12 +4485,8 @@
       </c>
       <c r="H173" s="10"/>
       <c r="I173" s="10"/>
-      <c r="J173" s="10"/>
-      <c r="K173" s="2" t="s">
+      <c r="J173" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="M173" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" s="16"/>
@@ -4713,8 +4499,8 @@
         <v>173</v>
       </c>
       <c r="B174" s="9"/>
-      <c r="C174" s="30"/>
-      <c r="D174" s="30"/>
+      <c r="C174" s="20"/>
+      <c r="D174" s="20"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
@@ -4722,7 +4508,9 @@
       <c r="I174" s="2"/>
       <c r="J174" s="2"/>
       <c r="K174" s="2"/>
-      <c r="L174" s="2"/>
+      <c r="L174" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="M174" s="2"/>
       <c r="N174" s="2"/>
       <c r="O174" s="16"/>
@@ -4735,8 +4523,8 @@
         <v>174</v>
       </c>
       <c r="B175" s="9"/>
-      <c r="C175" s="25"/>
-      <c r="D175" s="25"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
@@ -4757,27 +4545,19 @@
         <v>175</v>
       </c>
       <c r="B176" s="9"/>
-      <c r="C176" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2"/>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
       <c r="H176" s="2"/>
       <c r="I176" s="2"/>
-      <c r="J176" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L176" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M176" s="10"/>
+      <c r="M176" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="N176" s="10"/>
       <c r="O176" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P176" s="9"/>
       <c r="Q176" s="6"/>
@@ -4814,14 +4594,15 @@
         <v>0</v>
       </c>
       <c r="D178" s="10"/>
-      <c r="E178" s="10"/>
-      <c r="F178" s="2" t="s">
+      <c r="E178" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G178" s="2"/>
       <c r="H178" s="2"/>
       <c r="I178" s="2"/>
-      <c r="J178" s="2"/>
+      <c r="J178" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="K178" s="2"/>
       <c r="L178" s="2"/>
       <c r="M178" s="2"/>
@@ -4937,22 +4718,22 @@
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
       <c r="F184" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G184" s="24"/>
       <c r="H184" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="J184" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="K184" s="24"/>
       <c r="L184" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="M184" s="2"/>
       <c r="N184" s="2"/>
-      <c r="O184" s="31"/>
+      <c r="O184" s="25"/>
       <c r="P184" s="9"/>
       <c r="Q184" s="6"/>
       <c r="R184" s="2"/>
@@ -4999,7 +4780,7 @@
       <c r="M186" s="10"/>
       <c r="N186" s="10"/>
       <c r="O186" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P186" s="9"/>
       <c r="Q186" s="6"/>
@@ -5014,20 +4795,18 @@
         <v>0</v>
       </c>
       <c r="D187" s="10"/>
-      <c r="E187" s="10"/>
-      <c r="F187" s="2" t="s">
+      <c r="E187" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G187" s="2"/>
+      <c r="F187" s="2"/>
       <c r="I187" s="2"/>
-      <c r="K187" s="2"/>
-      <c r="L187" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M187" s="10"/>
+      <c r="L187" s="2"/>
+      <c r="M187" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="N187" s="10"/>
       <c r="O187" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P187" s="9"/>
       <c r="Q187" s="6"/>
@@ -5042,20 +4821,18 @@
         <v>2</v>
       </c>
       <c r="D188" s="10"/>
-      <c r="E188" s="10"/>
-      <c r="F188" s="2" t="s">
+      <c r="E188" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G188" s="2"/>
+      <c r="F188" s="2"/>
       <c r="I188" s="2"/>
-      <c r="K188" s="2"/>
-      <c r="L188" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M188" s="10"/>
+      <c r="L188" s="2"/>
+      <c r="M188" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="N188" s="10"/>
       <c r="O188" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P188" s="9"/>
       <c r="Q188" s="6"/>
@@ -5070,20 +4847,18 @@
         <v>2</v>
       </c>
       <c r="D189" s="10"/>
-      <c r="E189" s="10"/>
-      <c r="F189" s="2" t="s">
+      <c r="E189" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G189" s="2"/>
+      <c r="F189" s="2"/>
       <c r="I189" s="2"/>
-      <c r="K189" s="2"/>
-      <c r="L189" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M189" s="10"/>
+      <c r="L189" s="2"/>
+      <c r="M189" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="N189" s="10"/>
       <c r="O189" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P189" s="9"/>
       <c r="Q189" s="6"/>
@@ -5098,20 +4873,18 @@
         <v>2</v>
       </c>
       <c r="D190" s="10"/>
-      <c r="E190" s="10"/>
-      <c r="F190" s="2" t="s">
+      <c r="E190" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G190" s="2"/>
+      <c r="F190" s="2"/>
       <c r="I190" s="2"/>
-      <c r="K190" s="2"/>
-      <c r="L190" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M190" s="10"/>
+      <c r="L190" s="2"/>
+      <c r="M190" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="N190" s="10"/>
       <c r="O190" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P190" s="9"/>
       <c r="Q190" s="6"/>
@@ -5126,20 +4899,18 @@
         <v>2</v>
       </c>
       <c r="D191" s="10"/>
-      <c r="E191" s="10"/>
-      <c r="F191" s="2" t="s">
+      <c r="E191" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G191" s="2"/>
+      <c r="F191" s="2"/>
       <c r="I191" s="2"/>
-      <c r="K191" s="2"/>
-      <c r="L191" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M191" s="10"/>
+      <c r="L191" s="2"/>
+      <c r="M191" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="N191" s="10"/>
       <c r="O191" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P191" s="9"/>
       <c r="Q191" s="6"/>
@@ -5154,20 +4925,20 @@
         <v>2</v>
       </c>
       <c r="D192" s="10"/>
-      <c r="E192" s="10"/>
-      <c r="F192" s="2" t="s">
+      <c r="E192" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G192" s="2"/>
-      <c r="I192" s="2"/>
-      <c r="K192" s="2"/>
-      <c r="L192" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M192" s="10"/>
+      <c r="F192" s="2"/>
+      <c r="I192" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L192" s="2"/>
+      <c r="M192" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="N192" s="10"/>
       <c r="O192" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P192" s="9"/>
       <c r="Q192" s="6"/>
@@ -5183,19 +4954,17 @@
       </c>
       <c r="D193" s="10"/>
       <c r="E193" s="10"/>
-      <c r="F193" s="10"/>
-      <c r="G193" s="2" t="s">
+      <c r="F193" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I193" s="2"/>
-      <c r="K193" s="2"/>
-      <c r="L193" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M193" s="10"/>
+      <c r="L193" s="2"/>
+      <c r="M193" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="N193" s="10"/>
       <c r="O193" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P193" s="9"/>
       <c r="Q193" s="6"/>
@@ -5210,20 +4979,18 @@
         <v>2</v>
       </c>
       <c r="D194" s="10"/>
-      <c r="E194" s="10"/>
-      <c r="F194" s="2" t="s">
+      <c r="E194" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G194" s="2"/>
+      <c r="F194" s="2"/>
       <c r="I194" s="2"/>
-      <c r="K194" s="2"/>
-      <c r="L194" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M194" s="10"/>
+      <c r="L194" s="2"/>
+      <c r="M194" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="N194" s="10"/>
       <c r="O194" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P194" s="9"/>
       <c r="Q194" s="6"/>
@@ -5238,20 +5005,20 @@
         <v>2</v>
       </c>
       <c r="D195" s="10"/>
-      <c r="E195" s="10"/>
-      <c r="F195" s="2" t="s">
+      <c r="E195" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G195" s="2"/>
-      <c r="I195" s="2"/>
-      <c r="K195" s="2"/>
-      <c r="L195" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M195" s="10"/>
+      <c r="F195" s="2"/>
+      <c r="I195" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L195" s="2"/>
+      <c r="M195" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="N195" s="10"/>
       <c r="O195" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P195" s="9"/>
       <c r="Q195" s="6"/>
@@ -5266,20 +5033,18 @@
         <v>2</v>
       </c>
       <c r="D196" s="10"/>
-      <c r="E196" s="10"/>
-      <c r="F196" s="2" t="s">
+      <c r="E196" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G196" s="2"/>
+      <c r="F196" s="2"/>
       <c r="I196" s="2"/>
-      <c r="K196" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L196" s="10"/>
+      <c r="L196" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="M196" s="10"/>
       <c r="N196" s="10"/>
       <c r="O196" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P196" s="9"/>
       <c r="Q196" s="6"/>
@@ -5294,20 +5059,18 @@
         <v>2</v>
       </c>
       <c r="D197" s="10"/>
-      <c r="E197" s="10"/>
-      <c r="F197" s="2" t="s">
+      <c r="E197" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G197" s="2"/>
+      <c r="F197" s="2"/>
       <c r="I197" s="2"/>
-      <c r="K197" s="2"/>
-      <c r="L197" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M197" s="10"/>
+      <c r="L197" s="2"/>
+      <c r="M197" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="N197" s="10"/>
       <c r="O197" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P197" s="9"/>
       <c r="Q197" s="6"/>
@@ -5322,17 +5085,18 @@
         <v>2</v>
       </c>
       <c r="D198" s="10"/>
-      <c r="E198" s="10"/>
-      <c r="F198" s="2" t="s">
+      <c r="E198" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L198" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M198" s="10"/>
+      <c r="I198" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M198" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="N198" s="10"/>
       <c r="O198" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P198" s="9"/>
       <c r="Q198" s="6"/>
@@ -5347,22 +5111,17 @@
         <v>2</v>
       </c>
       <c r="D199" s="10"/>
-      <c r="E199" s="10"/>
-      <c r="F199" s="2" t="s">
+      <c r="E199" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G199" s="2"/>
-      <c r="I199" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K199" s="2"/>
-      <c r="L199" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M199" s="10"/>
+      <c r="F199" s="2"/>
+      <c r="L199" s="2"/>
+      <c r="M199" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="N199" s="10"/>
       <c r="O199" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P199" s="9"/>
       <c r="Q199" s="6"/>
@@ -5377,20 +5136,18 @@
         <v>2</v>
       </c>
       <c r="D200" s="10"/>
-      <c r="E200" s="10"/>
-      <c r="F200" s="2" t="s">
+      <c r="E200" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G200" s="2"/>
+      <c r="F200" s="2"/>
       <c r="I200" s="2"/>
-      <c r="K200" s="2"/>
-      <c r="L200" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M200" s="10"/>
+      <c r="L200" s="2"/>
+      <c r="M200" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="N200" s="10"/>
       <c r="O200" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P200" s="9"/>
       <c r="Q200" s="6"/>
@@ -5405,24 +5162,29 @@
         <v>2</v>
       </c>
       <c r="D201" s="10"/>
-      <c r="E201" s="10"/>
+      <c r="E201" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="F201" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G201" s="24"/>
       <c r="H201" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I201" s="24"/>
+        <v>34</v>
+      </c>
       <c r="J201" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K201" s="24"/>
       <c r="L201" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M201" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="M201" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="N201" s="10"/>
       <c r="O201" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P201" s="9"/>
       <c r="Q201" s="6"/>
@@ -5437,20 +5199,18 @@
         <v>0</v>
       </c>
       <c r="D202" s="10"/>
-      <c r="E202" s="10"/>
-      <c r="F202" s="2" t="s">
+      <c r="E202" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G202" s="2"/>
+      <c r="F202" s="2"/>
       <c r="I202" s="2"/>
-      <c r="K202" s="2"/>
-      <c r="L202" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M202" s="10"/>
+      <c r="L202" s="2"/>
+      <c r="M202" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="N202" s="10"/>
       <c r="O202" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P202" s="9"/>
       <c r="Q202" s="6"/>
@@ -5476,7 +5236,7 @@
       <c r="M203" s="10"/>
       <c r="N203" s="10"/>
       <c r="O203" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P203" s="9"/>
       <c r="Q203" s="6"/>
@@ -5548,7 +5308,7 @@
       <c r="B207" s="9"/>
       <c r="C207" s="6"/>
       <c r="I207" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K207" s="2"/>
       <c r="L207" s="2"/>
@@ -5614,7 +5374,7 @@
       <c r="G210" s="2"/>
       <c r="H210" s="2"/>
       <c r="I210" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J210" s="2"/>
       <c r="K210" s="2"/>
@@ -5724,7 +5484,7 @@
       <c r="G215" s="2"/>
       <c r="H215" s="2"/>
       <c r="I215" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J215" s="2"/>
       <c r="K215" s="2"/>
@@ -5812,9 +5572,6 @@
       <c r="F219" s="2"/>
       <c r="G219" s="2"/>
       <c r="H219" s="2"/>
-      <c r="J219" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="K219" s="2"/>
       <c r="L219" s="2"/>
       <c r="M219" s="2"/>
@@ -5858,7 +5615,9 @@
       <c r="G221" s="2"/>
       <c r="H221" s="2"/>
       <c r="I221" s="2"/>
-      <c r="J221" s="2"/>
+      <c r="J221" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="K221" s="2"/>
       <c r="L221" s="2"/>
       <c r="M221" s="2"/>
@@ -6041,11 +5800,11 @@
       <c r="K229" s="2"/>
       <c r="L229" s="2"/>
       <c r="M229" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N229" s="10"/>
       <c r="O229" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P229" s="9"/>
       <c r="Q229" s="6"/>
@@ -6070,12 +5829,12 @@
       <c r="J230" s="2"/>
       <c r="K230" s="2"/>
       <c r="L230" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M230" s="10"/>
       <c r="N230" s="10"/>
       <c r="O230" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P230" s="9"/>
       <c r="Q230" s="6"/>
@@ -6100,12 +5859,12 @@
       <c r="J231" s="2"/>
       <c r="K231" s="2"/>
       <c r="L231" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M231" s="10"/>
       <c r="N231" s="10"/>
       <c r="O231" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P231" s="9"/>
       <c r="Q231" s="6"/>
@@ -6127,17 +5886,17 @@
       <c r="G232" s="2"/>
       <c r="H232" s="2"/>
       <c r="I232" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J232" s="2"/>
       <c r="K232" s="2"/>
       <c r="L232" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M232" s="10"/>
       <c r="N232" s="10"/>
       <c r="O232" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P232" s="9"/>
       <c r="Q232" s="6"/>
@@ -6162,12 +5921,12 @@
       <c r="J233" s="2"/>
       <c r="K233" s="2"/>
       <c r="L233" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M233" s="10"/>
       <c r="N233" s="10"/>
       <c r="O233" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P233" s="9"/>
       <c r="Q233" s="6"/>
@@ -6192,12 +5951,12 @@
       <c r="J234" s="2"/>
       <c r="K234" s="2"/>
       <c r="L234" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M234" s="10"/>
       <c r="N234" s="10"/>
       <c r="O234" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P234" s="9"/>
       <c r="Q234" s="6"/>
@@ -6222,12 +5981,12 @@
       <c r="J235" s="2"/>
       <c r="K235" s="2"/>
       <c r="L235" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M235" s="10"/>
       <c r="N235" s="10"/>
       <c r="O235" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P235" s="9"/>
       <c r="Q235" s="6"/>
@@ -6252,12 +6011,12 @@
       <c r="J236" s="2"/>
       <c r="K236" s="2"/>
       <c r="L236" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M236" s="10"/>
       <c r="N236" s="10"/>
       <c r="O236" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P236" s="9"/>
       <c r="Q236" s="6"/>
@@ -6282,12 +6041,12 @@
       <c r="J237" s="2"/>
       <c r="K237" s="2"/>
       <c r="L237" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M237" s="10"/>
       <c r="N237" s="10"/>
       <c r="O237" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P237" s="9"/>
       <c r="Q237" s="6"/>
@@ -6308,17 +6067,17 @@
       </c>
       <c r="G238" s="2"/>
       <c r="H238" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J238" s="2"/>
       <c r="K238" s="2"/>
       <c r="L238" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M238" s="10"/>
       <c r="N238" s="10"/>
       <c r="O238" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P238" s="9"/>
       <c r="Q238" s="6"/>
@@ -6343,12 +6102,12 @@
       <c r="J239" s="2"/>
       <c r="K239" s="2"/>
       <c r="L239" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M239" s="10"/>
       <c r="N239" s="10"/>
       <c r="O239" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P239" s="9"/>
       <c r="Q239" s="6"/>
@@ -6373,12 +6132,12 @@
       <c r="J240" s="2"/>
       <c r="K240" s="2"/>
       <c r="L240" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M240" s="10"/>
       <c r="N240" s="10"/>
       <c r="O240" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P240" s="9"/>
       <c r="Q240" s="6"/>
@@ -6399,12 +6158,12 @@
       </c>
       <c r="K241" s="2"/>
       <c r="L241" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M241" s="10"/>
       <c r="N241" s="10"/>
       <c r="O241" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P241" s="9"/>
       <c r="Q241" s="6"/>
@@ -6425,12 +6184,12 @@
       </c>
       <c r="K242" s="2"/>
       <c r="L242" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M242" s="10"/>
       <c r="N242" s="10"/>
       <c r="O242" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P242" s="9"/>
       <c r="Q242" s="6"/>
@@ -6455,12 +6214,12 @@
       <c r="J243" s="2"/>
       <c r="K243" s="2"/>
       <c r="L243" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M243" s="10"/>
       <c r="N243" s="10"/>
       <c r="O243" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P243" s="9"/>
       <c r="Q243" s="6"/>
@@ -6484,12 +6243,12 @@
       <c r="J244" s="2"/>
       <c r="K244" s="2"/>
       <c r="L244" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M244" s="10"/>
       <c r="N244" s="10"/>
       <c r="O244" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P244" s="9"/>
       <c r="Q244" s="6"/>
@@ -6514,12 +6273,12 @@
       <c r="J245" s="2"/>
       <c r="K245" s="2"/>
       <c r="L245" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M245" s="10"/>
       <c r="N245" s="10"/>
       <c r="O245" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P245" s="9"/>
       <c r="Q245" s="6"/>
@@ -6544,11 +6303,11 @@
       <c r="K246" s="2"/>
       <c r="L246" s="2"/>
       <c r="M246" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N246" s="10"/>
       <c r="O246" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P246" s="9"/>
       <c r="Q246" s="6"/>
@@ -6699,7 +6458,7 @@
       <c r="I253" s="2"/>
       <c r="J253" s="2"/>
       <c r="K253" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="L253" s="2"/>
       <c r="M253" s="2"/>
@@ -6719,9 +6478,7 @@
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
       <c r="H254" s="2"/>
-      <c r="I254" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="I254" s="2"/>
       <c r="J254" s="2"/>
       <c r="K254" s="2"/>
       <c r="L254" s="2"/>
@@ -6738,7 +6495,7 @@
       </c>
       <c r="B255" s="9"/>
       <c r="C255" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -7072,9 +6829,8 @@
       <c r="G270" s="2"/>
       <c r="H270" s="2"/>
       <c r="I270" s="2"/>
-      <c r="J270" s="2"/>
-      <c r="K270" s="2" t="s">
-        <v>29</v>
+      <c r="J270" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="L270" s="2"/>
       <c r="M270" s="2"/>
@@ -7303,19 +7059,18 @@
       </c>
       <c r="F281" s="2"/>
       <c r="G281" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H281" s="2"/>
-      <c r="I281" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J281" s="10"/>
+      <c r="J281" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="K281" s="10"/>
       <c r="L281" s="10"/>
       <c r="M281" s="10"/>
       <c r="N281" s="10"/>
       <c r="O281" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P281" s="9"/>
       <c r="Q281" s="6"/>
@@ -7466,9 +7221,7 @@
       <c r="I288" s="2"/>
       <c r="J288" s="2"/>
       <c r="K288" s="2"/>
-      <c r="L288" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="L288" s="2"/>
       <c r="M288" s="2"/>
       <c r="N288" s="2"/>
       <c r="O288" s="1"/>
@@ -7490,7 +7243,7 @@
       <c r="I289" s="2"/>
       <c r="J289" s="2"/>
       <c r="K289" s="2"/>
-      <c r="L289" s="26"/>
+      <c r="L289" s="2"/>
       <c r="M289" s="2"/>
       <c r="N289" s="2"/>
       <c r="O289" s="1"/>
@@ -7512,7 +7265,7 @@
       <c r="I290" s="2"/>
       <c r="J290" s="2"/>
       <c r="K290" s="2"/>
-      <c r="L290" s="26"/>
+      <c r="L290" s="2"/>
       <c r="M290" s="2"/>
       <c r="N290" s="2"/>
       <c r="O290" s="1"/>
@@ -7534,7 +7287,7 @@
       <c r="I291" s="2"/>
       <c r="J291" s="2"/>
       <c r="K291" s="2"/>
-      <c r="L291" s="26"/>
+      <c r="L291" s="2"/>
       <c r="M291" s="2"/>
       <c r="N291" s="2"/>
       <c r="O291" s="1"/>
@@ -7556,7 +7309,7 @@
       <c r="I292" s="2"/>
       <c r="J292" s="2"/>
       <c r="K292" s="2"/>
-      <c r="L292" s="26"/>
+      <c r="L292" s="2"/>
       <c r="M292" s="2"/>
       <c r="N292" s="2"/>
       <c r="O292" s="1"/>
@@ -7578,9 +7331,7 @@
       <c r="I293" s="2"/>
       <c r="J293" s="2"/>
       <c r="K293" s="2"/>
-      <c r="L293" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="L293" s="2"/>
       <c r="M293" s="2"/>
       <c r="N293" s="2"/>
       <c r="O293" s="1"/>
@@ -7603,9 +7354,7 @@
       <c r="J294" s="2"/>
       <c r="K294" s="20"/>
       <c r="M294" s="2"/>
-      <c r="N294" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="N294" s="2"/>
       <c r="O294" s="1"/>
       <c r="P294" s="9"/>
       <c r="Q294" s="6"/>
@@ -7730,7 +7479,7 @@
       <c r="G300" s="2"/>
       <c r="H300" s="2"/>
       <c r="I300" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J300" s="2"/>
       <c r="K300" s="2"/>
@@ -7800,9 +7549,7 @@
       <c r="G303" s="10"/>
       <c r="H303" s="10"/>
       <c r="I303" s="10"/>
-      <c r="J303" s="10"/>
-      <c r="K303" s="10"/>
-      <c r="L303" s="2" t="s">
+      <c r="J303" s="2" t="s">
         <v>1</v>
       </c>
       <c r="O303" s="1"/>
@@ -7925,7 +7672,7 @@
       </c>
       <c r="B309" s="9"/>
       <c r="C309" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
@@ -8097,7 +7844,9 @@
       <c r="I317" s="2"/>
       <c r="J317" s="2"/>
       <c r="K317" s="2"/>
-      <c r="L317" s="2"/>
+      <c r="L317" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="M317" s="2"/>
       <c r="N317" s="2"/>
       <c r="O317" s="1"/>
@@ -8112,13 +7861,8 @@
       <c r="B318" s="9"/>
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
-      <c r="E318" s="2"/>
-      <c r="F318" s="2"/>
-      <c r="G318" s="2"/>
       <c r="H318" s="2"/>
-      <c r="I318" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="I318" s="2"/>
       <c r="J318" s="2"/>
       <c r="K318" s="2"/>
       <c r="L318" s="2"/>
@@ -8136,9 +7880,6 @@
       <c r="B319" s="9"/>
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
-      <c r="E319" s="2"/>
-      <c r="F319" s="2"/>
-      <c r="G319" s="2"/>
       <c r="H319" s="2"/>
       <c r="I319" s="2"/>
       <c r="J319" s="2"/>
@@ -8158,9 +7899,6 @@
       <c r="B320" s="9"/>
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
-      <c r="E320" s="2"/>
-      <c r="F320" s="2"/>
-      <c r="G320" s="2"/>
       <c r="H320" s="2"/>
       <c r="I320" s="2"/>
       <c r="J320" s="2"/>
@@ -8180,9 +7918,6 @@
       <c r="B321" s="9"/>
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
-      <c r="E321" s="2"/>
-      <c r="F321" s="2"/>
-      <c r="G321" s="2"/>
       <c r="H321" s="2"/>
       <c r="I321" s="2"/>
       <c r="J321" s="2"/>
@@ -8202,9 +7937,6 @@
       <c r="B322" s="9"/>
       <c r="C322" s="6"/>
       <c r="D322" s="2"/>
-      <c r="E322" s="2"/>
-      <c r="F322" s="2"/>
-      <c r="G322" s="2"/>
       <c r="H322" s="2"/>
       <c r="I322" s="2"/>
       <c r="J322" s="2"/>
@@ -8224,9 +7956,6 @@
       <c r="B323" s="9"/>
       <c r="C323" s="6"/>
       <c r="D323" s="2"/>
-      <c r="E323" s="2"/>
-      <c r="F323" s="2"/>
-      <c r="G323" s="2"/>
       <c r="H323" s="2"/>
       <c r="I323" s="2"/>
       <c r="J323" s="2"/>
@@ -8246,15 +7975,14 @@
       <c r="B324" s="9"/>
       <c r="C324" s="6"/>
       <c r="D324" s="2"/>
-      <c r="E324" s="2"/>
-      <c r="F324" s="2"/>
-      <c r="G324" s="2"/>
       <c r="H324" s="2"/>
       <c r="I324" s="2"/>
       <c r="J324" s="2"/>
       <c r="K324" s="2"/>
       <c r="L324" s="2"/>
-      <c r="M324" s="2"/>
+      <c r="M324" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="N324" s="2"/>
       <c r="O324" s="1"/>
       <c r="P324" s="9"/>
@@ -8268,14 +7996,9 @@
       <c r="B325" s="9"/>
       <c r="C325" s="6"/>
       <c r="D325" s="2"/>
-      <c r="E325" s="2"/>
-      <c r="F325" s="2"/>
-      <c r="G325" s="2"/>
       <c r="H325" s="2"/>
       <c r="I325" s="2"/>
-      <c r="J325" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="J325" s="2"/>
       <c r="K325" s="2"/>
       <c r="L325" s="2"/>
       <c r="M325" s="2"/>
@@ -8292,15 +8015,11 @@
       <c r="B326" s="9"/>
       <c r="C326" s="6"/>
       <c r="D326" s="2"/>
-      <c r="E326" s="2"/>
-      <c r="F326" s="2"/>
-      <c r="G326" s="2"/>
       <c r="H326" s="2"/>
       <c r="I326" s="2"/>
       <c r="J326" s="2"/>
       <c r="K326" s="2"/>
       <c r="L326" s="2"/>
-      <c r="M326" s="2"/>
       <c r="N326" s="2"/>
       <c r="O326" s="1"/>
       <c r="P326" s="9"/>
@@ -8314,13 +8033,11 @@
       <c r="B327" s="9"/>
       <c r="C327" s="6"/>
       <c r="D327" s="2"/>
-      <c r="E327" s="2"/>
-      <c r="F327" s="2"/>
-      <c r="G327" s="2"/>
-      <c r="H327" s="2"/>
+      <c r="H327" s="1"/>
       <c r="I327" s="2"/>
+      <c r="J327" s="1"/>
       <c r="K327" s="2"/>
-      <c r="L327" s="2"/>
+      <c r="L327" s="1"/>
       <c r="M327" s="2"/>
       <c r="N327" s="2"/>
       <c r="O327" s="1"/>
@@ -8335,15 +8052,12 @@
       <c r="B328" s="9"/>
       <c r="C328" s="1"/>
       <c r="D328" s="2"/>
-      <c r="E328" s="1"/>
-      <c r="F328" s="2"/>
-      <c r="G328" s="1"/>
       <c r="H328" s="2"/>
-      <c r="I328" s="1"/>
+      <c r="I328" s="2"/>
       <c r="J328" s="2"/>
       <c r="K328" s="2"/>
       <c r="L328" s="2"/>
-      <c r="M328" s="1"/>
+      <c r="M328" s="2"/>
       <c r="N328" s="2"/>
       <c r="O328" s="1"/>
       <c r="P328" s="9"/>
@@ -8357,14 +8071,13 @@
       <c r="B329" s="9"/>
       <c r="C329" s="6"/>
       <c r="D329" s="2"/>
-      <c r="E329" s="2"/>
-      <c r="F329" s="2"/>
-      <c r="G329" s="2"/>
-      <c r="H329" s="2"/>
+      <c r="H329" s="1"/>
       <c r="I329" s="2"/>
-      <c r="J329" s="2"/>
-      <c r="K329" s="2"/>
-      <c r="L329" s="2"/>
+      <c r="J329" s="1"/>
+      <c r="K329" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L329" s="1"/>
       <c r="M329" s="2"/>
       <c r="N329" s="2"/>
       <c r="O329" s="1"/>
@@ -8379,17 +8092,12 @@
       <c r="B330" s="9"/>
       <c r="C330" s="1"/>
       <c r="D330" s="2"/>
-      <c r="E330" s="1"/>
-      <c r="F330" s="2"/>
-      <c r="G330" s="1"/>
-      <c r="H330" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I330" s="1"/>
+      <c r="H330" s="2"/>
+      <c r="I330" s="2"/>
       <c r="J330" s="2"/>
-      <c r="K330" s="1"/>
+      <c r="K330" s="2"/>
       <c r="L330" s="2"/>
-      <c r="M330" s="1"/>
+      <c r="M330" s="2"/>
       <c r="N330" s="2"/>
       <c r="O330" s="1"/>
       <c r="P330" s="9"/>
@@ -8403,9 +8111,6 @@
       <c r="B331" s="9"/>
       <c r="C331" s="6"/>
       <c r="D331" s="2"/>
-      <c r="E331" s="2"/>
-      <c r="F331" s="2"/>
-      <c r="G331" s="2"/>
       <c r="H331" s="2"/>
       <c r="I331" s="2"/>
       <c r="J331" s="2"/>
@@ -8425,13 +8130,9 @@
       <c r="B332" s="9"/>
       <c r="C332" s="6"/>
       <c r="D332" s="2"/>
-      <c r="E332" s="2"/>
-      <c r="F332" s="2"/>
-      <c r="G332" s="2"/>
       <c r="H332" s="2"/>
       <c r="I332" s="2"/>
       <c r="J332" s="2"/>
-      <c r="K332" s="2"/>
       <c r="L332" s="2"/>
       <c r="M332" s="2"/>
       <c r="N332" s="2"/>
@@ -8447,9 +8148,9 @@
       <c r="B333" s="9"/>
       <c r="C333" s="6"/>
       <c r="D333" s="2"/>
-      <c r="E333" s="2"/>
-      <c r="F333" s="2"/>
-      <c r="G333" s="2"/>
+      <c r="H333" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="I333" s="2"/>
       <c r="J333" s="2"/>
       <c r="K333" s="2"/>
@@ -8468,14 +8169,6 @@
       <c r="B334" s="9"/>
       <c r="C334" s="6"/>
       <c r="D334" s="2"/>
-      <c r="E334" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F334" s="2"/>
-      <c r="G334" s="2"/>
-      <c r="H334" s="2"/>
-      <c r="I334" s="2"/>
-      <c r="J334" s="2"/>
       <c r="K334" s="2"/>
       <c r="L334" s="2"/>
       <c r="M334" s="2"/>
@@ -8606,7 +8299,9 @@
       <c r="F340" s="2"/>
       <c r="G340" s="2"/>
       <c r="H340" s="2"/>
-      <c r="I340" s="2"/>
+      <c r="I340" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J340" s="2"/>
       <c r="K340" s="2"/>
       <c r="L340" s="2"/>
@@ -8652,9 +8347,6 @@
       <c r="H342" s="2"/>
       <c r="I342" s="2"/>
       <c r="J342" s="2"/>
-      <c r="K342" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="L342" s="2"/>
       <c r="M342" s="2"/>
       <c r="N342" s="2"/>
@@ -8727,11 +8419,11 @@
       <c r="K345" s="2"/>
       <c r="L345" s="2"/>
       <c r="M345" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N345" s="10"/>
       <c r="O345" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P345" s="9"/>
       <c r="Q345" s="6"/>
@@ -8758,9 +8450,6 @@
       </c>
       <c r="B347" s="9"/>
       <c r="C347" s="6"/>
-      <c r="J347" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="K347" s="2"/>
       <c r="L347" s="2"/>
       <c r="M347" s="2"/>
@@ -8783,7 +8472,9 @@
       <c r="H348" s="2"/>
       <c r="I348" s="2"/>
       <c r="J348" s="2"/>
-      <c r="K348" s="2"/>
+      <c r="K348" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="L348" s="2"/>
       <c r="M348" s="2"/>
       <c r="N348" s="2"/>
@@ -8841,14 +8532,6 @@
       <c r="E351" s="2"/>
       <c r="F351" s="2"/>
       <c r="G351" s="2"/>
-      <c r="H351" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I351" s="10"/>
-      <c r="J351" s="10"/>
-      <c r="K351" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="L351" s="2"/>
       <c r="M351" s="2"/>
       <c r="N351" s="2"/>
@@ -8889,9 +8572,13 @@
       <c r="E353" s="2"/>
       <c r="G353" s="2"/>
       <c r="H353" s="2"/>
-      <c r="I353" s="2"/>
-      <c r="J353" s="2"/>
-      <c r="K353" s="2"/>
+      <c r="I353" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J353" s="10"/>
+      <c r="K353" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="L353" s="2"/>
       <c r="M353" s="2"/>
       <c r="N353" s="2"/>
@@ -8931,7 +8618,7 @@
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
       <c r="F355" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G355" s="2"/>
       <c r="H355" s="2"/>
@@ -8979,9 +8666,7 @@
       <c r="I357" s="2"/>
       <c r="J357" s="2"/>
       <c r="K357" s="2"/>
-      <c r="L357" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="L357" s="2"/>
       <c r="M357" s="2"/>
       <c r="N357" s="2"/>
       <c r="O357" s="1"/>
@@ -9002,15 +8687,6 @@
       <c r="H358" s="2"/>
       <c r="I358" s="2"/>
       <c r="J358" s="2"/>
-      <c r="K358" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L358" s="10"/>
-      <c r="M358" s="10"/>
-      <c r="N358" s="10"/>
-      <c r="O358" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="P358" s="9"/>
       <c r="Q358" s="6"/>
       <c r="R358" s="2"/>
@@ -9028,10 +8704,6 @@
       <c r="I359" s="2"/>
       <c r="J359" s="2"/>
       <c r="K359" s="2"/>
-      <c r="L359" s="2"/>
-      <c r="M359" s="2"/>
-      <c r="N359" s="2"/>
-      <c r="O359" s="1"/>
       <c r="P359" s="9"/>
       <c r="Q359" s="6"/>
       <c r="R359" s="2"/>
@@ -9069,15 +8741,19 @@
       <c r="F361" s="2"/>
       <c r="G361" s="2"/>
       <c r="H361" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I361" s="2"/>
       <c r="J361" s="2"/>
       <c r="K361" s="2"/>
-      <c r="L361" s="2"/>
-      <c r="M361" s="2"/>
-      <c r="N361" s="2"/>
-      <c r="O361" s="1"/>
+      <c r="L361" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M361" s="10"/>
+      <c r="N361" s="10"/>
+      <c r="O361" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="P361" s="9"/>
       <c r="Q361" s="6"/>
       <c r="R361" s="2"/>
@@ -9175,18 +8851,6 @@
         <v>365</v>
       </c>
       <c r="B366" s="9"/>
-      <c r="C366" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D366" s="10"/>
-      <c r="E366" s="10"/>
-      <c r="F366" s="10"/>
-      <c r="G366" s="10"/>
-      <c r="H366" s="10"/>
-      <c r="I366" s="10"/>
-      <c r="J366" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="M366" s="2"/>
       <c r="N366" s="2"/>
       <c r="O366" s="1"/>
@@ -9221,13 +8885,17 @@
         <v>367</v>
       </c>
       <c r="B368" s="9"/>
-      <c r="C368" s="6"/>
-      <c r="D368" s="2"/>
-      <c r="E368" s="2"/>
-      <c r="F368" s="2"/>
-      <c r="G368" s="2"/>
-      <c r="H368" s="2"/>
-      <c r="I368" s="2"/>
+      <c r="C368" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D368" s="10"/>
+      <c r="E368" s="10"/>
+      <c r="F368" s="10"/>
+      <c r="G368" s="10"/>
+      <c r="H368" s="10"/>
+      <c r="I368" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="J368" s="2"/>
       <c r="K368" s="2"/>
       <c r="L368" s="2"/>
@@ -9253,7 +8921,7 @@
       <c r="J369" s="2"/>
       <c r="K369" s="2"/>
       <c r="L369" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M369" s="2"/>
       <c r="N369" s="2"/>
@@ -9521,11 +9189,11 @@
       <c r="K381" s="2"/>
       <c r="L381" s="2"/>
       <c r="M381" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N381" s="10"/>
       <c r="O381" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P381" s="9"/>
       <c r="Q381" s="6"/>
@@ -9546,12 +9214,12 @@
       </c>
       <c r="K382" s="2"/>
       <c r="L382" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M382" s="10"/>
       <c r="N382" s="10"/>
       <c r="O382" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P382" s="9"/>
       <c r="Q382" s="6"/>
@@ -9567,21 +9235,19 @@
       </c>
       <c r="D383" s="10"/>
       <c r="E383" s="10"/>
-      <c r="F383" s="10"/>
-      <c r="G383" s="2" t="s">
+      <c r="F383" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H383" s="2"/>
+      <c r="G383" s="2"/>
       <c r="I383" s="2"/>
-      <c r="J383" s="2"/>
-      <c r="K383" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L383" s="10"/>
+      <c r="K383" s="2"/>
+      <c r="L383" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="M383" s="10"/>
       <c r="N383" s="10"/>
       <c r="O383" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P383" s="9"/>
       <c r="Q383" s="6"/>
@@ -9597,21 +9263,19 @@
       </c>
       <c r="D384" s="10"/>
       <c r="E384" s="10"/>
-      <c r="F384" s="10"/>
-      <c r="G384" s="2" t="s">
+      <c r="F384" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H384" s="2"/>
+      <c r="G384" s="2"/>
       <c r="I384" s="2"/>
-      <c r="J384" s="2"/>
-      <c r="K384" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L384" s="10"/>
+      <c r="K384" s="2"/>
+      <c r="L384" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="M384" s="10"/>
       <c r="N384" s="10"/>
       <c r="O384" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P384" s="9"/>
       <c r="Q384" s="6"/>
@@ -9627,21 +9291,19 @@
       </c>
       <c r="D385" s="10"/>
       <c r="E385" s="10"/>
-      <c r="F385" s="10"/>
-      <c r="G385" s="2" t="s">
+      <c r="F385" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H385" s="2"/>
+      <c r="G385" s="2"/>
       <c r="I385" s="2"/>
-      <c r="J385" s="2"/>
-      <c r="K385" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L385" s="10"/>
+      <c r="K385" s="2"/>
+      <c r="L385" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="M385" s="10"/>
       <c r="N385" s="10"/>
       <c r="O385" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P385" s="9"/>
       <c r="Q385" s="6"/>
@@ -9657,21 +9319,19 @@
       </c>
       <c r="D386" s="10"/>
       <c r="E386" s="10"/>
-      <c r="F386" s="10"/>
-      <c r="G386" s="2" t="s">
+      <c r="F386" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H386" s="2"/>
+      <c r="G386" s="2"/>
       <c r="I386" s="2"/>
-      <c r="J386" s="2"/>
-      <c r="K386" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L386" s="10"/>
+      <c r="K386" s="2"/>
+      <c r="L386" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="M386" s="10"/>
       <c r="N386" s="10"/>
       <c r="O386" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P386" s="9"/>
       <c r="Q386" s="6"/>
@@ -9687,21 +9347,19 @@
       </c>
       <c r="D387" s="10"/>
       <c r="E387" s="10"/>
-      <c r="F387" s="10"/>
-      <c r="G387" s="2" t="s">
+      <c r="F387" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H387" s="2"/>
+      <c r="G387" s="2"/>
       <c r="I387" s="2"/>
-      <c r="J387" s="2"/>
-      <c r="K387" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L387" s="10"/>
+      <c r="K387" s="2"/>
+      <c r="L387" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="M387" s="10"/>
       <c r="N387" s="10"/>
       <c r="O387" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P387" s="9"/>
       <c r="Q387" s="6"/>
@@ -9717,21 +9375,19 @@
       </c>
       <c r="D388" s="10"/>
       <c r="E388" s="10"/>
-      <c r="F388" s="10"/>
-      <c r="G388" s="2" t="s">
+      <c r="F388" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H388" s="2"/>
+      <c r="G388" s="2"/>
       <c r="I388" s="2"/>
-      <c r="J388" s="2"/>
-      <c r="K388" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L388" s="10"/>
+      <c r="K388" s="2"/>
+      <c r="L388" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="M388" s="10"/>
       <c r="N388" s="10"/>
       <c r="O388" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P388" s="9"/>
       <c r="Q388" s="6"/>
@@ -9748,21 +9404,19 @@
       <c r="D389" s="10"/>
       <c r="E389" s="10"/>
       <c r="F389" s="10"/>
-      <c r="G389" s="10"/>
-      <c r="H389" s="2" t="s">
+      <c r="G389" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I389" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K389" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L389" s="10"/>
+        <v>24</v>
+      </c>
+      <c r="L389" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="M389" s="10"/>
       <c r="N389" s="10"/>
       <c r="O389" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P389" s="9"/>
       <c r="Q389" s="6"/>
@@ -9778,21 +9432,19 @@
       </c>
       <c r="D390" s="10"/>
       <c r="E390" s="10"/>
-      <c r="F390" s="10"/>
-      <c r="G390" s="2" t="s">
+      <c r="F390" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H390" s="2"/>
+      <c r="G390" s="2"/>
       <c r="I390" s="2"/>
-      <c r="J390" s="2"/>
-      <c r="K390" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L390" s="10"/>
+      <c r="K390" s="2"/>
+      <c r="L390" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="M390" s="10"/>
       <c r="N390" s="10"/>
       <c r="O390" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P390" s="9"/>
       <c r="Q390" s="6"/>
@@ -9808,21 +9460,19 @@
       </c>
       <c r="D391" s="10"/>
       <c r="E391" s="10"/>
-      <c r="F391" s="10"/>
-      <c r="G391" s="2" t="s">
+      <c r="F391" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H391" s="2"/>
+      <c r="G391" s="2"/>
       <c r="I391" s="2"/>
-      <c r="J391" s="2"/>
-      <c r="K391" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L391" s="10"/>
+      <c r="K391" s="2"/>
+      <c r="L391" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="M391" s="10"/>
       <c r="N391" s="10"/>
       <c r="O391" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P391" s="9"/>
       <c r="Q391" s="6"/>
@@ -9838,21 +9488,19 @@
       </c>
       <c r="D392" s="10"/>
       <c r="E392" s="10"/>
-      <c r="F392" s="10"/>
-      <c r="G392" s="2" t="s">
+      <c r="F392" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H392" s="2"/>
+      <c r="G392" s="2"/>
       <c r="I392" s="2"/>
-      <c r="J392" s="2"/>
-      <c r="K392" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L392" s="10"/>
+      <c r="K392" s="2"/>
+      <c r="L392" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="M392" s="10"/>
       <c r="N392" s="10"/>
       <c r="O392" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P392" s="9"/>
       <c r="Q392" s="6"/>
@@ -9868,20 +9516,18 @@
       </c>
       <c r="D393" s="10"/>
       <c r="E393" s="10"/>
-      <c r="F393" s="10"/>
-      <c r="G393" s="2" t="s">
+      <c r="F393" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I393" s="2"/>
-      <c r="J393" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K393" s="10"/>
+      <c r="K393" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="L393" s="10"/>
       <c r="M393" s="10"/>
       <c r="N393" s="10"/>
       <c r="O393" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P393" s="9"/>
       <c r="Q393" s="6"/>
@@ -9897,21 +9543,19 @@
       </c>
       <c r="D394" s="10"/>
       <c r="E394" s="10"/>
-      <c r="F394" s="10"/>
-      <c r="G394" s="2" t="s">
+      <c r="F394" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H394" s="2"/>
+      <c r="G394" s="2"/>
       <c r="I394" s="2"/>
-      <c r="J394" s="2"/>
-      <c r="K394" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L394" s="10"/>
+      <c r="K394" s="2"/>
+      <c r="L394" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="M394" s="10"/>
       <c r="N394" s="10"/>
       <c r="O394" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P394" s="9"/>
       <c r="Q394" s="6"/>
@@ -9927,21 +9571,19 @@
       </c>
       <c r="D395" s="10"/>
       <c r="E395" s="10"/>
-      <c r="F395" s="10"/>
-      <c r="G395" s="2" t="s">
+      <c r="F395" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H395" s="2"/>
+      <c r="G395" s="2"/>
       <c r="I395" s="2"/>
-      <c r="J395" s="2"/>
-      <c r="K395" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L395" s="10"/>
+      <c r="K395" s="2"/>
+      <c r="L395" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="M395" s="10"/>
       <c r="N395" s="10"/>
       <c r="O395" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P395" s="9"/>
       <c r="Q395" s="6"/>
@@ -9957,21 +9599,19 @@
       </c>
       <c r="D396" s="10"/>
       <c r="E396" s="10"/>
-      <c r="F396" s="10"/>
-      <c r="G396" s="2" t="s">
+      <c r="F396" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H396" s="2"/>
+      <c r="G396" s="2"/>
       <c r="I396" s="2"/>
-      <c r="J396" s="2"/>
-      <c r="K396" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L396" s="10"/>
+      <c r="K396" s="2"/>
+      <c r="L396" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="M396" s="10"/>
       <c r="N396" s="10"/>
       <c r="O396" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P396" s="9"/>
       <c r="Q396" s="6"/>
@@ -9987,21 +9627,19 @@
       </c>
       <c r="D397" s="10"/>
       <c r="E397" s="10"/>
-      <c r="F397" s="10"/>
-      <c r="G397" s="2" t="s">
+      <c r="F397" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H397" s="2"/>
+      <c r="G397" s="2"/>
       <c r="I397" s="2"/>
-      <c r="J397" s="2"/>
-      <c r="K397" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L397" s="10"/>
+      <c r="K397" s="2"/>
+      <c r="L397" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="M397" s="10"/>
       <c r="N397" s="10"/>
       <c r="O397" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P397" s="9"/>
       <c r="Q397" s="6"/>
@@ -10017,21 +9655,19 @@
       </c>
       <c r="D398" s="10"/>
       <c r="E398" s="10"/>
-      <c r="F398" s="10"/>
-      <c r="G398" s="2" t="s">
+      <c r="F398" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H398" s="2"/>
+      <c r="G398" s="2"/>
       <c r="I398" s="2"/>
-      <c r="J398" s="2"/>
-      <c r="K398" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L398" s="10"/>
+      <c r="K398" s="2"/>
+      <c r="L398" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="M398" s="10"/>
       <c r="N398" s="10"/>
       <c r="O398" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P398" s="9"/>
       <c r="Q398" s="6"/>
@@ -10047,21 +9683,19 @@
       </c>
       <c r="D399" s="10"/>
       <c r="E399" s="10"/>
-      <c r="F399" s="10"/>
-      <c r="G399" s="2" t="s">
+      <c r="F399" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H399" s="2"/>
+      <c r="G399" s="2"/>
       <c r="I399" s="2"/>
-      <c r="J399" s="2"/>
-      <c r="K399" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L399" s="10"/>
+      <c r="K399" s="2"/>
+      <c r="L399" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="M399" s="10"/>
       <c r="N399" s="10"/>
       <c r="O399" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P399" s="9"/>
       <c r="Q399" s="6"/>
@@ -10077,23 +9711,19 @@
       </c>
       <c r="D400" s="10"/>
       <c r="E400" s="10"/>
-      <c r="F400" s="10"/>
-      <c r="G400" s="2" t="s">
+      <c r="F400" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H400" s="2"/>
-      <c r="I400" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J400" s="2"/>
-      <c r="K400" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L400" s="10"/>
+      <c r="G400" s="2"/>
+      <c r="I400" s="2"/>
+      <c r="K400" s="2"/>
+      <c r="L400" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="M400" s="10"/>
       <c r="N400" s="10"/>
       <c r="O400" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P400" s="9"/>
       <c r="Q400" s="6"/>
@@ -10109,7 +9739,9 @@
       <c r="E401" s="2"/>
       <c r="F401" s="2"/>
       <c r="G401" s="2"/>
-      <c r="H401" s="2"/>
+      <c r="H401" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="I401" s="2"/>
       <c r="J401" s="2"/>
       <c r="K401" s="2"/>
@@ -10313,13 +9945,13 @@
       <c r="I410" s="2"/>
       <c r="J410" s="2"/>
       <c r="K410" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L410" s="10"/>
       <c r="M410" s="10"/>
       <c r="N410" s="10"/>
       <c r="O410" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P410" s="9"/>
       <c r="Q410" s="6"/>
@@ -10337,9 +9969,7 @@
       <c r="G411" s="2"/>
       <c r="H411" s="2"/>
       <c r="I411" s="2"/>
-      <c r="J411" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="J411" s="2"/>
       <c r="K411" s="2"/>
       <c r="L411" s="2"/>
       <c r="M411" s="2"/>
@@ -10427,7 +10057,7 @@
       <c r="G415" s="2"/>
       <c r="H415" s="2"/>
       <c r="I415" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="J415" s="2"/>
       <c r="K415" s="2"/>
@@ -10448,11 +10078,11 @@
       <c r="D416" s="2"/>
       <c r="F416" s="2"/>
       <c r="H416" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I416" s="2"/>
       <c r="J416" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="K416" s="2"/>
       <c r="L416" s="2"/>
@@ -10551,7 +10181,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C421" s="23"/>
       <c r="D421" s="21"/>
@@ -10567,7 +10197,7 @@
       <c r="N421" s="21"/>
       <c r="O421" s="22"/>
       <c r="P421" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Q421" s="6"/>
       <c r="R421" s="2"/>
@@ -10589,7 +10219,7 @@
       <c r="L422" s="2"/>
       <c r="M422" s="2"/>
       <c r="N422" s="2"/>
-      <c r="O422" s="31"/>
+      <c r="O422" s="25"/>
       <c r="P422" s="9"/>
     </row>
     <row r="423" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -10609,7 +10239,7 @@
       <c r="L423" s="2"/>
       <c r="M423" s="2"/>
       <c r="N423" s="2"/>
-      <c r="O423" s="31"/>
+      <c r="O423" s="25"/>
       <c r="P423" s="9"/>
     </row>
     <row r="424" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -10629,7 +10259,7 @@
       <c r="L424" s="2"/>
       <c r="M424" s="2"/>
       <c r="N424" s="2"/>
-      <c r="O424" s="31"/>
+      <c r="O424" s="25"/>
       <c r="P424" s="9"/>
     </row>
     <row r="425" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -10649,7 +10279,7 @@
       <c r="L425" s="2"/>
       <c r="M425" s="2"/>
       <c r="N425" s="2"/>
-      <c r="O425" s="31"/>
+      <c r="O425" s="25"/>
       <c r="P425" s="9"/>
     </row>
     <row r="426" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -10669,7 +10299,7 @@
       <c r="L426" s="2"/>
       <c r="M426" s="2"/>
       <c r="N426" s="2"/>
-      <c r="O426" s="31"/>
+      <c r="O426" s="25"/>
       <c r="P426" s="9"/>
     </row>
     <row r="427" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -10689,7 +10319,7 @@
       <c r="L427" s="2"/>
       <c r="M427" s="2"/>
       <c r="N427" s="2"/>
-      <c r="O427" s="31"/>
+      <c r="O427" s="25"/>
       <c r="P427" s="9"/>
     </row>
     <row r="428" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -10709,7 +10339,7 @@
       <c r="L428" s="2"/>
       <c r="M428" s="2"/>
       <c r="N428" s="2"/>
-      <c r="O428" s="31"/>
+      <c r="O428" s="25"/>
       <c r="P428" s="9"/>
     </row>
     <row r="429" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -10729,7 +10359,7 @@
       <c r="L429" s="2"/>
       <c r="M429" s="2"/>
       <c r="N429" s="2"/>
-      <c r="O429" s="31"/>
+      <c r="O429" s="25"/>
       <c r="P429" s="9"/>
     </row>
     <row r="430" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -10749,7 +10379,7 @@
       <c r="L430" s="2"/>
       <c r="M430" s="2"/>
       <c r="N430" s="2"/>
-      <c r="O430" s="31"/>
+      <c r="O430" s="25"/>
       <c r="P430" s="9"/>
     </row>
     <row r="431" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -10769,7 +10399,7 @@
       <c r="L431" s="2"/>
       <c r="M431" s="2"/>
       <c r="N431" s="2"/>
-      <c r="O431" s="31"/>
+      <c r="O431" s="25"/>
       <c r="P431" s="9"/>
     </row>
     <row r="432" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -10789,7 +10419,7 @@
       <c r="L432" s="2"/>
       <c r="M432" s="2"/>
       <c r="N432" s="2"/>
-      <c r="O432" s="31"/>
+      <c r="O432" s="25"/>
       <c r="P432" s="9"/>
     </row>
     <row r="433" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -10809,7 +10439,7 @@
       <c r="L433" s="2"/>
       <c r="M433" s="2"/>
       <c r="N433" s="2"/>
-      <c r="O433" s="31"/>
+      <c r="O433" s="25"/>
       <c r="P433" s="9"/>
     </row>
     <row r="434" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -10829,7 +10459,7 @@
       <c r="L434" s="2"/>
       <c r="M434" s="2"/>
       <c r="N434" s="2"/>
-      <c r="O434" s="31"/>
+      <c r="O434" s="25"/>
       <c r="P434" s="9"/>
     </row>
     <row r="435" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -10849,7 +10479,7 @@
       <c r="L435" s="2"/>
       <c r="M435" s="2"/>
       <c r="N435" s="2"/>
-      <c r="O435" s="31"/>
+      <c r="O435" s="25"/>
       <c r="P435" s="9"/>
     </row>
     <row r="436" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -10869,7 +10499,7 @@
       <c r="L436" s="2"/>
       <c r="M436" s="2"/>
       <c r="N436" s="2"/>
-      <c r="O436" s="31"/>
+      <c r="O436" s="25"/>
       <c r="P436" s="9"/>
     </row>
     <row r="437" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -10889,7 +10519,7 @@
       <c r="L437" s="2"/>
       <c r="M437" s="2"/>
       <c r="N437" s="2"/>
-      <c r="O437" s="31"/>
+      <c r="O437" s="25"/>
       <c r="P437" s="9"/>
     </row>
     <row r="438" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -10909,7 +10539,7 @@
       <c r="L438" s="2"/>
       <c r="M438" s="2"/>
       <c r="N438" s="2"/>
-      <c r="O438" s="31"/>
+      <c r="O438" s="25"/>
       <c r="P438" s="9"/>
     </row>
     <row r="439" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -10929,7 +10559,7 @@
       <c r="L439" s="2"/>
       <c r="M439" s="2"/>
       <c r="N439" s="2"/>
-      <c r="O439" s="31"/>
+      <c r="O439" s="25"/>
       <c r="P439" s="9"/>
     </row>
     <row r="440" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -10949,7 +10579,7 @@
       <c r="L440" s="2"/>
       <c r="M440" s="2"/>
       <c r="N440" s="2"/>
-      <c r="O440" s="31"/>
+      <c r="O440" s="25"/>
       <c r="P440" s="9"/>
     </row>
     <row r="441" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -10969,7 +10599,7 @@
       <c r="L441" s="2"/>
       <c r="M441" s="2"/>
       <c r="N441" s="2"/>
-      <c r="O441" s="31"/>
+      <c r="O441" s="25"/>
       <c r="P441" s="9"/>
     </row>
     <row r="442" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -10989,7 +10619,7 @@
       <c r="L442" s="2"/>
       <c r="M442" s="2"/>
       <c r="N442" s="2"/>
-      <c r="O442" s="31"/>
+      <c r="O442" s="25"/>
       <c r="P442" s="9"/>
     </row>
     <row r="443" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -11009,7 +10639,7 @@
       <c r="L443" s="2"/>
       <c r="M443" s="2"/>
       <c r="N443" s="2"/>
-      <c r="O443" s="31"/>
+      <c r="O443" s="25"/>
       <c r="P443" s="9"/>
     </row>
     <row r="444" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -11029,7 +10659,7 @@
       <c r="L444" s="2"/>
       <c r="M444" s="2"/>
       <c r="N444" s="2"/>
-      <c r="O444" s="31"/>
+      <c r="O444" s="25"/>
       <c r="P444" s="9"/>
     </row>
     <row r="445" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -11049,7 +10679,7 @@
       <c r="L445" s="2"/>
       <c r="M445" s="2"/>
       <c r="N445" s="2"/>
-      <c r="O445" s="31"/>
+      <c r="O445" s="25"/>
       <c r="P445" s="9"/>
     </row>
     <row r="446" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -11069,7 +10699,7 @@
       <c r="L446" s="2"/>
       <c r="M446" s="2"/>
       <c r="N446" s="2"/>
-      <c r="O446" s="31"/>
+      <c r="O446" s="25"/>
       <c r="P446" s="9"/>
     </row>
     <row r="447" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -11089,7 +10719,7 @@
       <c r="L447" s="2"/>
       <c r="M447" s="2"/>
       <c r="N447" s="2"/>
-      <c r="O447" s="31"/>
+      <c r="O447" s="25"/>
       <c r="P447" s="9"/>
     </row>
     <row r="448" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -11109,7 +10739,7 @@
       <c r="L448" s="2"/>
       <c r="M448" s="2"/>
       <c r="N448" s="2"/>
-      <c r="O448" s="31"/>
+      <c r="O448" s="25"/>
       <c r="P448" s="9"/>
     </row>
     <row r="449" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -11129,7 +10759,7 @@
       <c r="L449" s="2"/>
       <c r="M449" s="2"/>
       <c r="N449" s="2"/>
-      <c r="O449" s="31"/>
+      <c r="O449" s="25"/>
       <c r="P449" s="9"/>
     </row>
     <row r="450" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -11149,7 +10779,7 @@
       <c r="L450" s="2"/>
       <c r="M450" s="2"/>
       <c r="N450" s="2"/>
-      <c r="O450" s="31"/>
+      <c r="O450" s="25"/>
       <c r="P450" s="9"/>
     </row>
     <row r="451" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -11169,7 +10799,7 @@
       <c r="L451" s="2"/>
       <c r="M451" s="2"/>
       <c r="N451" s="2"/>
-      <c r="O451" s="31"/>
+      <c r="O451" s="25"/>
       <c r="P451" s="9"/>
     </row>
     <row r="452" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -11189,7 +10819,7 @@
       <c r="L452" s="2"/>
       <c r="M452" s="2"/>
       <c r="N452" s="2"/>
-      <c r="O452" s="31"/>
+      <c r="O452" s="25"/>
       <c r="P452" s="9"/>
     </row>
     <row r="453" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -11209,7 +10839,7 @@
       <c r="L453" s="2"/>
       <c r="M453" s="2"/>
       <c r="N453" s="2"/>
-      <c r="O453" s="31"/>
+      <c r="O453" s="25"/>
       <c r="P453" s="9"/>
     </row>
     <row r="454" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -11229,7 +10859,7 @@
       <c r="L454" s="2"/>
       <c r="M454" s="2"/>
       <c r="N454" s="2"/>
-      <c r="O454" s="31"/>
+      <c r="O454" s="25"/>
       <c r="P454" s="9"/>
     </row>
     <row r="455" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -11249,7 +10879,7 @@
       <c r="L455" s="2"/>
       <c r="M455" s="2"/>
       <c r="N455" s="2"/>
-      <c r="O455" s="31"/>
+      <c r="O455" s="25"/>
       <c r="P455" s="9"/>
     </row>
     <row r="456" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -11269,7 +10899,7 @@
       <c r="L456" s="2"/>
       <c r="M456" s="2"/>
       <c r="N456" s="2"/>
-      <c r="O456" s="31"/>
+      <c r="O456" s="25"/>
       <c r="P456" s="9"/>
     </row>
     <row r="457" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -11289,7 +10919,7 @@
       <c r="L457" s="2"/>
       <c r="M457" s="2"/>
       <c r="N457" s="2"/>
-      <c r="O457" s="31"/>
+      <c r="O457" s="25"/>
       <c r="P457" s="9"/>
     </row>
     <row r="458" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -11309,7 +10939,7 @@
       <c r="L458" s="2"/>
       <c r="M458" s="2"/>
       <c r="N458" s="2"/>
-      <c r="O458" s="31"/>
+      <c r="O458" s="25"/>
       <c r="P458" s="9"/>
     </row>
     <row r="459" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -11329,7 +10959,7 @@
       <c r="L459" s="2"/>
       <c r="M459" s="2"/>
       <c r="N459" s="2"/>
-      <c r="O459" s="31"/>
+      <c r="O459" s="25"/>
       <c r="P459" s="9"/>
     </row>
     <row r="460" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -11349,7 +10979,7 @@
       <c r="L460" s="2"/>
       <c r="M460" s="2"/>
       <c r="N460" s="2"/>
-      <c r="O460" s="31"/>
+      <c r="O460" s="25"/>
       <c r="P460" s="9"/>
     </row>
     <row r="461" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -11369,7 +10999,7 @@
       <c r="L461" s="2"/>
       <c r="M461" s="2"/>
       <c r="N461" s="2"/>
-      <c r="O461" s="31"/>
+      <c r="O461" s="25"/>
       <c r="P461" s="9"/>
     </row>
     <row r="462" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -11389,7 +11019,7 @@
       <c r="L462" s="2"/>
       <c r="M462" s="2"/>
       <c r="N462" s="2"/>
-      <c r="O462" s="31"/>
+      <c r="O462" s="25"/>
       <c r="P462" s="9"/>
     </row>
     <row r="463" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -11409,7 +11039,7 @@
       <c r="L463" s="2"/>
       <c r="M463" s="2"/>
       <c r="N463" s="2"/>
-      <c r="O463" s="31"/>
+      <c r="O463" s="25"/>
       <c r="P463" s="9"/>
     </row>
     <row r="464" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -11429,7 +11059,7 @@
       <c r="L464" s="2"/>
       <c r="M464" s="2"/>
       <c r="N464" s="2"/>
-      <c r="O464" s="31"/>
+      <c r="O464" s="25"/>
       <c r="P464" s="9"/>
     </row>
     <row r="465" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -11449,7 +11079,7 @@
       <c r="L465" s="2"/>
       <c r="M465" s="2"/>
       <c r="N465" s="2"/>
-      <c r="O465" s="31"/>
+      <c r="O465" s="25"/>
       <c r="P465" s="9"/>
     </row>
     <row r="466" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -11469,7 +11099,7 @@
       <c r="L466" s="2"/>
       <c r="M466" s="2"/>
       <c r="N466" s="2"/>
-      <c r="O466" s="31"/>
+      <c r="O466" s="25"/>
       <c r="P466" s="9"/>
     </row>
     <row r="467" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -11489,7 +11119,7 @@
       <c r="L467" s="2"/>
       <c r="M467" s="2"/>
       <c r="N467" s="2"/>
-      <c r="O467" s="31"/>
+      <c r="O467" s="25"/>
       <c r="P467" s="9"/>
     </row>
     <row r="468" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -11509,7 +11139,7 @@
       <c r="L468" s="2"/>
       <c r="M468" s="2"/>
       <c r="N468" s="2"/>
-      <c r="O468" s="31"/>
+      <c r="O468" s="25"/>
       <c r="P468" s="9"/>
     </row>
     <row r="469" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -11529,7 +11159,7 @@
       <c r="L469" s="2"/>
       <c r="M469" s="2"/>
       <c r="N469" s="2"/>
-      <c r="O469" s="31"/>
+      <c r="O469" s="25"/>
       <c r="P469" s="9"/>
     </row>
     <row r="470" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -11549,11 +11179,11 @@
       <c r="L470" s="2"/>
       <c r="M470" s="2"/>
       <c r="N470" s="2"/>
-      <c r="O470" s="31"/>
+      <c r="O470" s="25"/>
       <c r="P470" s="9"/>
     </row>
     <row r="471" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A471" s="34">
+      <c r="A471" s="28">
         <v>470</v>
       </c>
       <c r="B471" s="9"/>
@@ -11569,7 +11199,7 @@
       <c r="L471" s="2"/>
       <c r="M471" s="2"/>
       <c r="N471" s="2"/>
-      <c r="O471" s="31"/>
+      <c r="O471" s="25"/>
       <c r="P471" s="9"/>
     </row>
     <row r="472" spans="1:16" x14ac:dyDescent="0.45">
